--- a/v2/data/raw/c101-tw/c101-a.xlsx
+++ b/v2/data/raw/c101-tw/c101-a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinghongmiao/Code/mvt-code/v2/data/raw/c101-tw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E40137-C5E3-B246-9DD5-CA4D0942D868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C9408-CC9D-A745-AEB0-0D84C727192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Time_Window" sheetId="7" r:id="rId7"/>
     <sheet name="Min_Nurse" sheetId="8" r:id="rId8"/>
     <sheet name="Nurse_Type" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>Parameter</t>
   </si>
@@ -108,6 +109,9 @@
   <si>
     <t>Type</t>
   </si>
+  <si>
+    <t>Block</t>
+  </si>
 </sst>
 </file>
 
@@ -163,11 +167,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,6 +531,382 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A772EB2-FDE1-2D4F-BCEE-66C03CC763B2}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+    <col min="4" max="5" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <f>B2/30</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3/30</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>330</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>270</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3">
+        <v>360</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3">
+        <v>360</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3">
+        <v>300</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY51"/>
@@ -16786,7 +17170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -17209,7 +17593,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -17630,8 +18016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19430,7 +19816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
